--- a/google-drive/weeklyDeliverables/timesheets/Angus/Week 3/Booked_Hours_Angus.xlsx
+++ b/google-drive/weeklyDeliverables/timesheets/Angus/Week 3/Booked_Hours_Angus.xlsx
@@ -85,7 +85,7 @@
     <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="h:mm:ss am/pm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -108,10 +108,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Lucida sans typewriter"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -256,34 +252,31 @@
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -293,9 +286,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -524,9 +514,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.29"/>
     <col customWidth="1" min="2" max="2" width="14.14"/>
-    <col customWidth="1" min="3" max="3" width="8.14"/>
-    <col customWidth="1" min="4" max="4" width="9.29"/>
-    <col customWidth="1" min="5" max="5" width="8.86"/>
+    <col customWidth="1" min="3" max="3" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="11.29"/>
+    <col customWidth="1" min="5" max="5" width="12.29"/>
     <col customWidth="1" min="6" max="6" width="46.57"/>
     <col customWidth="1" min="7" max="7" width="9.29"/>
     <col customWidth="1" min="8" max="8" width="10.71"/>
@@ -656,10 +646,10 @@
       <c r="E4" s="17">
         <v>0.4375</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <f t="shared" ref="G4:G30" si="1">IF(I4&gt;0,I4,IF(I4=0," ","ERROR"))</f>
         <v>0.9999999999</v>
       </c>
@@ -693,22 +683,22 @@
       <c r="A5" s="15">
         <v>3.0</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>44420.0</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.7291666666666666</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>44420.0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0.7708333333333334</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -742,22 +732,22 @@
       <c r="A6" s="15">
         <v>3.0</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>44421.0</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>0.5763888888888888</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>44421.0</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>0.6180555555555556</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f t="shared" si="1"/>
         <v>0.9999999999</v>
       </c>
@@ -789,12 +779,12 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="19" t="str">
+      <c r="G7" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -826,12 +816,12 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -863,12 +853,12 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -900,12 +890,12 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -937,12 +927,12 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -974,12 +964,12 @@
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1011,12 +1001,12 @@
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1048,12 +1038,12 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1085,12 +1075,12 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="19" t="str">
+      <c r="G15" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1122,12 +1112,12 @@
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1159,12 +1149,12 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1196,12 +1186,12 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1233,12 +1223,12 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1270,12 +1260,12 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1307,12 +1297,12 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1344,12 +1334,12 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1381,12 +1371,12 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1418,12 +1408,12 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1455,12 +1445,12 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1492,12 +1482,12 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1529,12 +1519,12 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1566,12 +1556,12 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1603,12 +1593,12 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1640,12 +1630,12 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="18" t="str">
         <f t="shared" si="1"/>
         <v> </v>
       </c>
@@ -1759,12 +1749,12 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="19" t="str">
+      <c r="G33" s="18" t="str">
         <f t="shared" ref="G33:G64" si="4">IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
         <v> </v>
       </c>
@@ -1796,12 +1786,12 @@
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="19" t="str">
+      <c r="G34" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -1833,12 +1823,12 @@
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="19" t="str">
+      <c r="G35" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -1870,12 +1860,12 @@
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="19" t="str">
+      <c r="G36" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -1907,12 +1897,12 @@
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="19" t="str">
+      <c r="G37" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -1944,12 +1934,12 @@
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="19" t="str">
+      <c r="G38" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -1981,12 +1971,12 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="19" t="str">
+      <c r="G39" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2018,12 +2008,12 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="19" t="str">
+      <c r="G40" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2055,12 +2045,12 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="19" t="str">
+      <c r="G41" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2092,12 +2082,12 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="19" t="str">
+      <c r="G42" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2129,12 +2119,12 @@
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="19" t="str">
+      <c r="G43" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2166,12 +2156,12 @@
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="19" t="str">
+      <c r="G44" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2203,12 +2193,12 @@
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="19" t="str">
+      <c r="G45" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2240,12 +2230,12 @@
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="19" t="str">
+      <c r="G46" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2277,12 +2267,12 @@
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="19" t="str">
+      <c r="G47" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2314,12 +2304,12 @@
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="19" t="str">
+      <c r="G48" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2351,12 +2341,12 @@
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="19" t="str">
+      <c r="G49" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2388,12 +2378,12 @@
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="19" t="str">
+      <c r="G50" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2425,12 +2415,12 @@
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="19" t="str">
+      <c r="G51" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2462,12 +2452,12 @@
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="19" t="str">
+      <c r="G52" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2499,12 +2489,12 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="19" t="str">
+      <c r="G53" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2536,12 +2526,12 @@
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="19" t="str">
+      <c r="G54" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2573,12 +2563,12 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="19" t="str">
+      <c r="G55" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2610,12 +2600,12 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="19" t="str">
+      <c r="G56" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2647,12 +2637,12 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="19" t="str">
+      <c r="G57" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2684,12 +2674,12 @@
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="19" t="str">
+      <c r="G58" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2721,12 +2711,12 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="4"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="19" t="str">
+      <c r="G59" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2758,12 +2748,12 @@
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="19" t="str">
+      <c r="G60" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2771,7 +2761,7 @@
         <f t="shared" si="5"/>
         <v> </v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2795,12 +2785,12 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="25"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="19" t="str">
+      <c r="G61" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2808,7 +2798,7 @@
         <f t="shared" si="5"/>
         <v> </v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2832,12 +2822,12 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="25"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="19" t="str">
+      <c r="G62" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2845,7 +2835,7 @@
         <f t="shared" si="5"/>
         <v> </v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2869,12 +2859,12 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="25"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="19" t="str">
+      <c r="G63" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2882,7 +2872,7 @@
         <f t="shared" si="5"/>
         <v> </v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2906,12 +2896,12 @@
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="25"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="19" t="str">
+      <c r="G64" s="18" t="str">
         <f t="shared" si="4"/>
         <v> </v>
       </c>
@@ -2919,7 +2909,7 @@
         <f t="shared" si="5"/>
         <v> </v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3030,7 +3020,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="19" t="str">
+      <c r="G67" s="18" t="str">
         <f t="shared" ref="G67:G98" si="6">IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
         <v> </v>
       </c>
@@ -3067,7 +3057,7 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="19" t="str">
+      <c r="G68" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3104,7 +3094,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="19" t="str">
+      <c r="G69" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3141,7 +3131,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="19" t="str">
+      <c r="G70" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3178,7 +3168,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="19" t="str">
+      <c r="G71" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3215,7 +3205,7 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="19" t="str">
+      <c r="G72" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3252,7 +3242,7 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="19" t="str">
+      <c r="G73" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3289,7 +3279,7 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="19" t="str">
+      <c r="G74" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3326,7 +3316,7 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="19" t="str">
+      <c r="G75" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3363,7 +3353,7 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="19" t="str">
+      <c r="G76" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3400,7 +3390,7 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="19" t="str">
+      <c r="G77" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3437,7 +3427,7 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="19" t="str">
+      <c r="G78" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3474,7 +3464,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="19" t="str">
+      <c r="G79" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3511,7 +3501,7 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="19" t="str">
+      <c r="G80" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3548,7 +3538,7 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="19" t="str">
+      <c r="G81" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3585,7 +3575,7 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="19" t="str">
+      <c r="G82" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3622,7 +3612,7 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="19" t="str">
+      <c r="G83" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3659,7 +3649,7 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="19" t="str">
+      <c r="G84" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3696,7 +3686,7 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="19" t="str">
+      <c r="G85" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3733,7 +3723,7 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="19" t="str">
+      <c r="G86" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3770,7 +3760,7 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="19" t="str">
+      <c r="G87" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3807,7 +3797,7 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="19" t="str">
+      <c r="G88" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3844,7 +3834,7 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="19" t="str">
+      <c r="G89" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3881,7 +3871,7 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="19" t="str">
+      <c r="G90" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3918,7 +3908,7 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="19" t="str">
+      <c r="G91" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3955,7 +3945,7 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="19" t="str">
+      <c r="G92" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -3992,7 +3982,7 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="19" t="str">
+      <c r="G93" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -4029,7 +4019,7 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="19" t="str">
+      <c r="G94" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -4066,7 +4056,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="19" t="str">
+      <c r="G95" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -4103,7 +4093,7 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="19" t="str">
+      <c r="G96" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -4140,7 +4130,7 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="19" t="str">
+      <c r="G97" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -4177,7 +4167,7 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="19" t="str">
+      <c r="G98" s="18" t="str">
         <f t="shared" si="6"/>
         <v> </v>
       </c>
@@ -4293,22 +4283,22 @@
       <c r="A101" s="4">
         <v>2.0</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B101" s="26">
         <v>44413.0</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="17">
         <v>0.3958333333333333</v>
       </c>
-      <c r="D101" s="27">
+      <c r="D101" s="26">
         <v>44413.0</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="17">
         <v>0.4375</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G101" s="19">
+      <c r="G101" s="18">
         <f t="shared" ref="G101:G132" si="8">IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
         <v>0.9999999999</v>
       </c>
@@ -4345,7 +4335,7 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="19" t="str">
+      <c r="G102" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4382,7 +4372,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="19" t="str">
+      <c r="G103" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4419,7 +4409,7 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="19" t="str">
+      <c r="G104" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4456,7 +4446,7 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="19" t="str">
+      <c r="G105" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4493,7 +4483,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="19" t="str">
+      <c r="G106" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4530,7 +4520,7 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="19" t="str">
+      <c r="G107" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4567,7 +4557,7 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="19" t="str">
+      <c r="G108" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4604,7 +4594,7 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="19" t="str">
+      <c r="G109" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4641,7 +4631,7 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="19" t="str">
+      <c r="G110" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4678,7 +4668,7 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="19" t="str">
+      <c r="G111" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4715,7 +4705,7 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="19" t="str">
+      <c r="G112" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4752,7 +4742,7 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="19" t="str">
+      <c r="G113" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4789,7 +4779,7 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="19" t="str">
+      <c r="G114" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4826,7 +4816,7 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="19" t="str">
+      <c r="G115" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4863,7 +4853,7 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="19" t="str">
+      <c r="G116" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4900,7 +4890,7 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="19" t="str">
+      <c r="G117" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4937,7 +4927,7 @@
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="19" t="str">
+      <c r="G118" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -4974,7 +4964,7 @@
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="19" t="str">
+      <c r="G119" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5011,7 +5001,7 @@
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="19" t="str">
+      <c r="G120" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5048,7 +5038,7 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="19" t="str">
+      <c r="G121" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5085,7 +5075,7 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="19" t="str">
+      <c r="G122" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5122,7 +5112,7 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="19" t="str">
+      <c r="G123" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5159,7 +5149,7 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="19" t="str">
+      <c r="G124" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5196,7 +5186,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="19" t="str">
+      <c r="G125" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5233,7 +5223,7 @@
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="19" t="str">
+      <c r="G126" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5270,7 +5260,7 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="19" t="str">
+      <c r="G127" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5307,7 +5297,7 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="19" t="str">
+      <c r="G128" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5344,7 +5334,7 @@
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="19" t="str">
+      <c r="G129" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5381,7 +5371,7 @@
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="19" t="str">
+      <c r="G130" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5418,7 +5408,7 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="19" t="str">
+      <c r="G131" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
@@ -5455,7 +5445,7 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="19" t="str">
+      <c r="G132" s="18" t="str">
         <f t="shared" si="8"/>
         <v> </v>
       </c>
